--- a/出口小分队小组分工.xlsx
+++ b/出口小分队小组分工.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="15071" windowHeight="9312"/>
+    <workbookView windowWidth="23040" windowHeight="9384" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="项目简介与分工" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="44">
   <si>
     <t>序号</t>
   </si>
@@ -35,7 +35,7 @@
     <t>分工</t>
   </si>
   <si>
-    <t>出口小分队</t>
+    <t xml:space="preserve">                 出口小分队</t>
   </si>
   <si>
     <t>卞耀波</t>
@@ -95,75 +95,70 @@
     <t>创建git账号及存储库、确立分工</t>
   </si>
   <si>
-    <t>完成YY模块的ZZ功能</t>
-  </si>
-  <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t>完成YY页面的开发</t>
-  </si>
-  <si>
-    <t>B</t>
-  </si>
-  <si>
-    <t>完成ZZ后端逻辑</t>
-  </si>
-  <si>
-    <t>C</t>
-  </si>
-  <si>
-    <t>完成前端页面的开发</t>
-  </si>
-  <si>
-    <t>D</t>
+    <t>完成用户登录模块及管理员登录模块</t>
+  </si>
+  <si>
+    <t>完成商品模块及商品查询模块</t>
+  </si>
+  <si>
+    <t>完成购物车模块及相关数据库建立</t>
+  </si>
+  <si>
+    <t>完成新闻资讯及留言板模块</t>
+  </si>
+  <si>
+    <t>完成管理新闻资讯和留言板模块</t>
+  </si>
+  <si>
+    <t>完成管理员管理商品模块</t>
+  </si>
+  <si>
+    <t>完成管理员管理用户模块</t>
+  </si>
+  <si>
+    <t>完成管理员订单管理模块</t>
+  </si>
+  <si>
+    <t>相关模块的前端页面美化</t>
   </si>
   <si>
     <t>完成项目立项申请书</t>
   </si>
   <si>
-    <t>A王文雅</t>
-  </si>
-  <si>
     <t>完成项目需求功能说明书</t>
   </si>
   <si>
-    <t>B王少池</t>
-  </si>
-  <si>
     <t>完成项目概要设计说明书</t>
   </si>
   <si>
-    <t>C卞耀波</t>
-  </si>
-  <si>
     <t>完成项目详细设计说明书</t>
   </si>
   <si>
-    <t>D赵世杰</t>
-  </si>
-  <si>
     <t>完成项目源码整合、调试与提交</t>
   </si>
   <si>
     <t>完成项目演示视频的制作</t>
   </si>
   <si>
-    <t>完成项目汇报ppt的制作</t>
-  </si>
-  <si>
-    <t>项目答辩</t>
+    <t>完成项目项目ppt的制作</t>
+  </si>
+  <si>
+    <t>项目</t>
+  </si>
+  <si>
+    <t>答辩</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
+  <numFmts count="5">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="m&quot;月&quot;d&quot;日&quot;;@"/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -175,6 +170,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
@@ -188,23 +190,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -212,7 +215,22 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -226,67 +244,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -295,24 +252,62 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -327,6 +322,72 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -339,31 +400,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -375,43 +466,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -423,91 +502,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -574,6 +569,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -584,6 +594,24 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -603,15 +631,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -623,21 +642,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -661,25 +665,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -688,139 +683,142 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -1160,8 +1158,8 @@
   <sheetPr/>
   <dimension ref="A1:L5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelRow="4"/>
@@ -1174,116 +1172,116 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
-      <c r="J1" s="6" t="s">
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="6" t="s">
+      <c r="K1" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="L1" s="6"/>
+      <c r="L1" s="7"/>
     </row>
     <row r="2" spans="1:12">
-      <c r="A2" s="7">
+      <c r="A2" s="8">
         <v>1</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
-      <c r="I2" s="8"/>
-      <c r="J2" s="9" t="s">
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="9"/>
+      <c r="J2" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="K2" s="5" t="s">
+      <c r="K2" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="L2" s="5" t="s">
+      <c r="L2" s="6" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:12">
-      <c r="A3" s="7"/>
-      <c r="B3" s="8"/>
-      <c r="C3" s="7" t="s">
+      <c r="A3" s="8"/>
+      <c r="B3" s="9"/>
+      <c r="C3" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="8"/>
-      <c r="H3" s="8"/>
-      <c r="I3" s="8"/>
-      <c r="J3" s="9"/>
-      <c r="K3" s="5" t="s">
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="9"/>
+      <c r="I3" s="9"/>
+      <c r="J3" s="10"/>
+      <c r="K3" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="L3" s="5" t="s">
+      <c r="L3" s="6" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:12">
-      <c r="A4" s="7"/>
-      <c r="B4" s="8"/>
-      <c r="C4" s="7" t="s">
+      <c r="A4" s="8"/>
+      <c r="B4" s="9"/>
+      <c r="C4" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="8"/>
-      <c r="I4" s="8"/>
-      <c r="J4" s="9"/>
-      <c r="K4" s="5" t="s">
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="9"/>
+      <c r="I4" s="9"/>
+      <c r="J4" s="10"/>
+      <c r="K4" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="L4" s="5" t="s">
+      <c r="L4" s="6" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:12">
-      <c r="A5" s="7"/>
-      <c r="B5" s="8"/>
-      <c r="C5" s="7" t="s">
+      <c r="A5" s="8"/>
+      <c r="B5" s="9"/>
+      <c r="C5" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8"/>
-      <c r="G5" s="8"/>
-      <c r="H5" s="8"/>
-      <c r="I5" s="8"/>
-      <c r="J5" s="9"/>
-      <c r="K5" s="5" t="s">
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="9"/>
+      <c r="I5" s="9"/>
+      <c r="J5" s="10"/>
+      <c r="K5" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="L5" s="5" t="s">
+      <c r="L5" s="6" t="s">
         <v>20</v>
       </c>
     </row>
@@ -1305,10 +1303,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B36"/>
+  <dimension ref="A1:B42"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelCol="1"/>
@@ -1367,7 +1365,7 @@
     </row>
     <row r="8" spans="1:1">
       <c r="A8" s="1">
-        <v>44691</v>
+        <v>44694</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -1375,73 +1373,76 @@
         <v>26</v>
       </c>
       <c r="B9" t="s">
-        <v>27</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B10" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B11" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B12" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" s="1">
-        <v>44696</v>
+        <v>44703</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B15" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B16" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B17" t="s">
-        <v>31</v>
+        <v>12</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B18" t="s">
-        <v>33</v>
-      </c>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" s="2"/>
     </row>
     <row r="20" spans="1:1">
-      <c r="A20" s="1">
-        <v>44704</v>
+      <c r="A20" s="2">
+        <v>44702</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -1449,98 +1450,138 @@
         <v>34</v>
       </c>
       <c r="B21" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B22" t="s">
-        <v>37</v>
+        <v>12</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="B23" t="s">
-        <v>39</v>
+        <v>15</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="B24" t="s">
-        <v>41</v>
-      </c>
-    </row>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="25" ht="13" customHeight="1"/>
     <row r="26" spans="1:1">
       <c r="A26" s="1">
-        <v>44706</v>
+        <v>44705</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="B27" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="B28" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="B29" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="B30" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="32" spans="1:1">
       <c r="A32" s="1">
-        <v>44707</v>
+        <v>44706</v>
       </c>
     </row>
     <row r="33" spans="1:2">
-      <c r="A33" s="2"/>
+      <c r="A33" t="s">
+        <v>39</v>
+      </c>
       <c r="B33" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="34" spans="1:2">
-      <c r="A34" s="3" t="s">
-        <v>45</v>
+      <c r="A34" t="s">
+        <v>39</v>
       </c>
       <c r="B34" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" t="s">
+        <v>40</v>
+      </c>
+      <c r="B35" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" t="s">
+        <v>41</v>
+      </c>
+      <c r="B36" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="35" spans="1:2">
-      <c r="A35" s="3"/>
-      <c r="B35" t="s">
+    <row r="38" spans="1:1">
+      <c r="A38" s="1">
+        <v>44707</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39" s="3"/>
+      <c r="B39" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B40" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B41" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="36" spans="1:2">
-      <c r="A36" s="4"/>
-      <c r="B36" t="s">
+    <row r="42" spans="1:2">
+      <c r="A42" s="5"/>
+      <c r="B42" t="s">
         <v>18</v>
       </c>
     </row>
